--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/5.DoiBH/DM220714_Etuka.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/5.DoiBH/DM220714_Etuka.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>WP21110052S00934</t>
+  </si>
+  <si>
+    <t>WP21110052S00541</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng led, lỗi GPS</t>
   </si>
 </sst>
 </file>
@@ -384,6 +390,18 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -400,18 +418,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +777,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" activeCellId="1" sqref="H12:I12 H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -794,76 +800,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="36" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="35" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="37" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="31"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -872,11 +878,11 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="32"/>
       <c r="E7" s="23"/>
       <c r="F7" s="6"/>
@@ -885,11 +891,11 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="31"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -901,11 +907,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="31"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -953,15 +959,15 @@
         <v>29</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>27</v>
@@ -970,56 +976,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>1</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="42" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="27" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -1055,46 +1075,49 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="C20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="27" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H21" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-    </row>
-    <row r="62" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+    </row>
+    <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D14:F14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -1105,6 +1128,14 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:C4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
